--- a/files/StandardStudentTemplate.xlsx
+++ b/files/StandardStudentTemplate.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>INSTRUCTIONS SHEET</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>ParentMobileNumber</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>Gender Selection</t>
@@ -8159,9 +8156,7 @@
       <c r="L1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="46" t="s">
-        <v>32</v>
-      </c>
+      <c r="M1" s="46"/>
     </row>
     <row r="2">
       <c r="A2" s="46"/>
@@ -9339,11 +9334,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E30">
       <formula1>Class</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F30">
+      <formula1>Section</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C30 K2:K30">
       <formula1>Gender</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3:F30">
-      <formula1>Section</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -9372,116 +9367,116 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="46" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="46" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="B3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="C3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="46" t="s">
+    </row>
+    <row r="4">
+      <c r="B4" s="46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="46" t="s">
+    </row>
+    <row r="5">
+      <c r="B5" s="46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="46" t="s">
+      <c r="C5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="46" t="s">
+    </row>
+    <row r="6">
+      <c r="B6" s="46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="46" t="s">
+    </row>
+    <row r="7">
+      <c r="B7" s="46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="46" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="46" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="46" t="s">
+      <c r="C9" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="46" t="s">
+    </row>
+    <row r="10">
+      <c r="B10" s="46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="46" t="s">
+      <c r="C10" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="46" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="46" t="s">
+    <row r="13">
+      <c r="B13" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="46" t="s">
+    <row r="14">
+      <c r="B14" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="46" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="15">
       <c r="B15" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
